--- a/Calcul salaire NE.xlsx
+++ b/Calcul salaire NE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\singer-sa.ch\shares\common\RedirectedFolder\malren\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Divers\projet_horaire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68342367-CB7D-4591-860D-55711451C7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EADAE1-1163-4019-8325-A886106BF199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="2130" windowWidth="17280" windowHeight="10005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>Salaire mensuel</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Canton de Vaud</t>
+  </si>
+  <si>
+    <t>Salaire annuel</t>
   </si>
 </sst>
 </file>
@@ -665,7 +668,7 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +818,7 @@
       <c r="C6" s="18"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F6" s="17">
         <f>B3*13</f>
